--- a/biology/Histoire de la zoologie et de la botanique/Jacob_Theodor_Klein/Jacob_Theodor_Klein.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jacob_Theodor_Klein/Jacob_Theodor_Klein.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacob Theodor Klein (ou Jacobus Theodorus Klein) est un naturaliste prussien, né le 15 août 1685 à Königsberg et mort le 27 février 1759 à Dantzig.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il travaille au sénat de Dantzig et se constitue un important cabinet de curiosités. Il a aussi été correspondant de Friedrich Christian Lesser (1692-1754). Il fonde le jardin botanique d'Oliwa (pl). Il est devenu plus tard un membre de la Royal Society (en 1729). Son neveu, Daniel Gralath, fut également maire de Gdańsk. Il bâtit un système de classification se voulant être le rival de celui de Carl von Linné (1707-1778).
 Ses nombreux livres sont des compilations. Il utilise notamment les illustrations des ouvrages d'Albertus Seba (1655-1736) et des premières éditions des ouvrages de Linné. Il ne suit que très partiellement le système de taxinomie binomiale linnéen.
 Parmi ses ouvrages, citons notamment Summa Dubiorum Circa Classes Quadrupedum et Amphibiorum (1743) et Tentamen Herpetologiae (1755). C'est dans cet ouvrage qu'il utilise, pour la première fois, le terme d'herpétologie mais sa délimitation des reptiles est encore floue puisqu'il regroupe avec eux des animaux comme les vers et exclut les grenouilles, les tortues et les lézards. Sa définition est ainsi formulée :
 «  Herpeta sunt animantia apeda, corpore elongata, quod volutum et flexuose loco malium movetur et sinuosum quiescit. »
-«  Les Herpeta ou animaux sans pattes et rampants sont divisés en deux ordres : les Anguis, qui comprend tous les serpents et reptiles sans pattes et les vermis qui rassemble tous les vers[1]. »
+«  Les Herpeta ou animaux sans pattes et rampants sont divisés en deux ordres : les Anguis, qui comprend tous les serpents et reptiles sans pattes et les vermis qui rassemble tous les vers. »
 Il fait une œuvre pionnière sur les oursins avec la publication de Naturalis dispositio Echinodermatum (Dantzig), une version enrichie est publiée par Nathanael Gottfried Leske (1751-1786) en 1778 sous le titre de Iacobi Theodori Klein naturalis dispositio echinodermatum, edita et descriptionibus novisque inventis et synonymis auctorum et aucta a N. G. Leske (G.E. Beer, Leipzig). Historia Naturalis Piscium qu'il publie vers 1745 ne constitue pas un immense progrès pour la connaissance des poissons et notamment par rapport au catalogue de Guillaume Rondelet (1507-1566).
 </t>
         </is>
@@ -547,7 +561,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Natürliche Ordnung und vermehrte Historie der vierfüssigen Thiere. Schuster, Danzig 1760 p.m.
 Vorbereitung zu einer vollständigen Vögelhistorie. Schmidt, Leipzig, Lübeck 1760 p.m.
